--- a/data/hotels_by_city/Dallas/Dallas_shard_359.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_359.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="433">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Rendell W</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>haagar2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r524022761-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Cooksonthemove</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r576643610-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>acianflocco</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r564668323-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>ryanalmon623</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r561497260-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r533900179-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -288,6 +306,9 @@
     <t>Showed up with my confirmation number from hotels.com and the clerk came out eating (a Big Mac or something) and ask for my name then said we don’t have a room for you. What?  I have a confirmation?  Sorry we don’t have a room for you. Another couple came in behind us and were given cards for their door no issue. Maybe the Packers jersey had something to do with it. Clerk was not helpful at all and basically rude. Think twice before booking at this hotel as you may sleep in your car. They attempted to look for another room locally but no luck. All booked. Well no sh!!  They overbook their rooms and turn you away to fend for yourself. We ended up driving to Houston after the game in Dallas and won’t forget the hospitality Not shown to us. Won’t be back. More</t>
   </si>
   <si>
+    <t>Kurt W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r527123210-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t xml:space="preserve">It is a good hotel with excellent location, with near convenient stores and restaurants, near highway and near Dallas downtown. Didn't like the housekeeping support, asked about how to turn of the air conditioner and just move her shoulder and mouth. Had to call Sonia at the front desk in order to get some kind support. </t>
   </si>
   <si>
+    <t>00sandie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r501278406-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t>This is the hotel that I meet my mom and sister at every few months.  My brother lives right down the street.  I live in midland and my mom and sister come from Oklahoma.  The hotel is always great.  Very clean, large rooms and a very helpful staff.   We already have rooms booked for Labor Day weekend for moms 70th birthday weekend.  More</t>
   </si>
   <si>
+    <t>markb0324</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r484577052-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -354,6 +381,9 @@
     <t>Was charged a 250$ smoking fee for no reason.... nothing was smoked in the room.... yes i rolled a joint and thru the stem in the trash, they said the room couldn't be rented for 2 days due to aroma, yet when called and rang room it was rented.... and who goes thru someone's room trash like a detective? That's not acceptable and grossly disturbing..... let's not forget the sink didn't drain...... no baseboards in hallways .... and you have to wait behind employees to eat! Pics of said smoking evidence included lmaoMore</t>
   </si>
   <si>
+    <t>Jasa W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r481647389-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -372,6 +402,9 @@
     <t>We booked with the military discount but were still charged the regular charge. When we left and returned to our room all the walls had been torn off due to construction. Our room number was written on wall in pencil and also on a price of duct tape. Went swimming and waited 30 minutes for towels and ended up walking to room to dry off. Last but certainly not least there was a party going on downstairs and they had a DJ and speakers. I am not against parties at all except for the fact that the music was so loud that on the 3rd floor it seemed it was in our actually room! It vibrated the pillows and could not even hear our room tv. My young daughter had trouble getting to bed since this was going on past 12 am ! I have tried to contact a manager over 8 times in the last week. Every time I get an excuse and have still not receive a call back. I was not going to write this review until I realized I was being avoided in purpose. I would definitely not recommend this place what so ever. More</t>
   </si>
   <si>
+    <t>sunkissbeach</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r468616914-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -399,6 +432,9 @@
     <t>I booked my room through trip advisor and booked a double bed with a pull out couch we had 3 teenagers it also allowed you to type in a request so I wrote that I needed to have that kind of room. So we get there and it was very nice!! Very clean!! The young lady at the counter was nice. So we get to the room and it was a single bed room..... im like this is NOT gonna work. I got back to the counter and they tell me thats what I booked and I said no its not so I showed them my confirmation by this time theres no more double bed rooms lefted Im sure thats why they gave it to me in the first place. They tried giving me a rolla way bed but theres 6 of us thats not gonna help.. I tried calling around to other hotels to get a double room and everyone was booked. So they made me pay for another room that was across the hall.. thats just poor management if you ask me.More</t>
   </si>
   <si>
+    <t>Wendy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r462712175-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -426,6 +462,9 @@
     <t>Stayed here while plumbing was being fixed at our house. We were very impressed! The rooms were nice, clean and very comfortable. The breakfast had great selection! The hotel staff was so incredibly friendly and helpful! Both Sonia Marine and Dane Swecker were so wonderful and dealt directly with our insurance company to take care of our hotel arrangements. We were truly impressed and will definitely have our family stay here when visiting! I can't thank them enough for how spectacular everyone was! This is truly a great place to stay!More</t>
   </si>
   <si>
+    <t>Cynthia J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r462475760-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -453,6 +492,9 @@
     <t>Third stay for annual family events. The location is very convenient so we stay at this location primarily for this reason. The rooms have been clean with comfortable beds and linens. Everything to date has been in working order. Quick on and off the highway and ample parking in the Hotel parking lot. Staff are polite and courteous.I can't commit on the "free" breakfast since I usually skip the "free" breakfast in hotels as they are full of sugar and carbs. The overall feel of this Hotel is average. The decor and design is standard "forgettable" hotel design. A large area "welcome" area with sofas and chairs. This hotel tends to get noisy in the lobby. Lots of people coming and going but does not affect the comfort on the rooms.More</t>
   </si>
   <si>
+    <t>Antoinette M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r461314766-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -492,6 +534,9 @@
     <t>I met my mom and sister in Dallas for the weekend and we stayed 3 nights here.  The rooms were huge and very clean and the beds were the most comfy that I've had in a hotel in a long time.  We will definitely stay here again on our next visit to Dallas. More</t>
   </si>
   <si>
+    <t>Georgiecakes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r456580628-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -516,6 +561,9 @@
     <t>Since we have stayed at Holiday Inn Express Hotels in the past we thought we would try this one. We were not disappointed. Our room was spacious and very clean. Walking distance to Chilis restaurant was a plus. Morning breakfast had many choices. I had the pancakes, eggs and a cinnamon roll. All were good. Staff was friendly and had fresh baked chocolate chip cookies on hand when we checked in. Convenient location for getting to downtown. Would stay here again if back this way. More</t>
   </si>
   <si>
+    <t>smithjl37</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r455510518-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -537,6 +585,9 @@
     <t>My husband I stayed here for three days and really had no issues. Rooms were clean and breakfast was good. Workout room was an added bonus with weights, mats, treadmills and exercise balls. Wish they would have had some water in there but it was well maintained. Only issue was people staying above us were noisy and we could hear them walking which was odd at a hotel. All in all great visit! More</t>
   </si>
   <si>
+    <t>Wis_Badger_Traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r450534666-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -559,6 +610,9 @@
   </si>
   <si>
     <t>New Year's Eve was a noisy night but other than that, the room was spacious, usual breakfast fair in a good-sized dining area, and friendly front desk. The best part we liked was the convenience to I-30 to go East downtown or West to AT&amp;T Stadium. I love the option to forego daily maid service (go green) and receive loyalty points. Thank you, HIE!More</t>
+  </si>
+  <si>
+    <t>Phil P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r447595968-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
@@ -600,6 +654,9 @@
 On the second day a guest (after hearing our British accent)...I've never write a bad review like this but here we go. Booked &amp; paid 4 months before hand, requested late check-in. Arrived about 10pm and they'd given our room away! And not just us. The chap on reception said "this hasn't just happened to you, you're about the 10th tonight". We weren't given any alternative than taking a smaller room which the reception guy said he considered wasn't suitable for the four of us. I said in the UK that would break fire regulations, which was met with a shrug of the shoulders (unbelievable!)But at 10pm at night they had us over a barrel of "take it or leave it". They forced me to sign a piece of paper saying I was okay with it, which I ammended the text on before i signed.All we got was a few dollars off.Then after a telephone conversation reception had with the manager we was told that they would move us the next day to the room we booked originally and that housekeeping would move our cases for us (as we had to be at Six Flags early), however, the next morning, the day staff refused to do this. We said the manager had given it the okay. But they overalled this and refused.The free cardboard breakfast wasn't up to much. We ate elsewhere the second day.On the second day a guest (after hearing our British accent) randomly said to us to be careful outside as "we're in a rough part of town" !!!!!They take a $50 deposit on the room on arrival which didn't get released and cleared back onto our card for 6 weeks.We also had a problem with the toilet siston which we reported, surprise surprise, it wasn't fixed properly.Sorry if this review costs them lost revenue, but the whole experience spoilt this part of our holiday vacation. (sad smiley face).You may get the room you've paid for, they may just give it to someone else.It gets a 1 star rating because it was clean and the decor was modern. More</t>
   </si>
   <si>
+    <t>Jill S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r419986290-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -624,6 +681,9 @@
     <t>Went to Dallas for a concert.  Stayed here because it was fairly close to the fair park and easily accessible from I30.  The hotel was clean and had a friendly staff.  They are having a deal where you can have late check-out on the weekends and are serving breakfast until noon.  That was nice since we came in late from the concert.  This hotel is next to several restaurants, a gas station, and a Wal-Mart. We arrived back at the hotel after midnight and felt safe walking from the car to the lobby.  I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>C P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r390345030-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -651,6 +711,9 @@
     <t>The staff at this hotel are outstanding. I needed to cancel a reservation that I had made on line. I explained my issue and they immediately cancelled it for me. It is very apparent that customer service is alive and well at this Holiday Inn Express.More</t>
   </si>
   <si>
+    <t>bconwayOU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r387847658-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -678,6 +741,9 @@
     <t>The HEI is nice - seems like a recently built hotel. Room and bathroom are decent sized and modern. Wifi worked well. It is in a good location and is set back off the interstate so noise was not an issue. Breakfast is typical HEI fare - nothing special, but OK.I stayed there to attend a concert at the Verizon Theater and it was a good location for that.There is a Chilis next door and several fast food options around.Will stay there again if the need arises.More</t>
   </si>
   <si>
+    <t>Ramachandran V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r382006186-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -693,6 +759,9 @@
     <t xml:space="preserve">I went to this place for a business visit. The hotel was nice and cozy and a lovely place. The rooms were cozy and in good condition. The breakfast was sumptuous and really nice. The service was great and they offer shuttle to most places around and you can just call them and the shuttle will come. Overall the stay was made comfortable by the staff. If I am going on business will go there again and again. </t>
   </si>
   <si>
+    <t>jhall112016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r379446009-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -720,6 +789,9 @@
     <t>Brought a group of high school students and staff from Nebraska to do college visits in the Dallas area. Found this hotel sort of at random, and am happy to say we did. Everything looks recently updated &amp; renovated - new, high quality finishes and details. Property was well kept, and rooms were immaculate.Manager Gerry Tarlac was a consummate professional in working with our large group. Responded well to phone calls, confirmed details in a timely manner, and made our students feel welcome throughout their four days in Dalas.More</t>
   </si>
   <si>
+    <t>Greg S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r373377987-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -744,6 +816,9 @@
     <t>Nice hotel. Hot breakfast was ok. Surprising it was very easy to get to downtown for the traffic was light heading into downtown the Thursday, Friday, and Saturday. Had a few minor problems but were fixed quickly.More</t>
   </si>
   <si>
+    <t>Jacinta S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r337414062-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -768,6 +843,9 @@
     <t>We stayed here on our first night in the USA &amp; then again on our last night in Texas. It was really well located across from a variety of food outlets and a huge Walmart which allowed everyone to get settled and supplied. Staff were friendly and managed to look after us all with minimum fuss. The facilities themselves were clean and well maintained . Breakfast was ideal for the group and I would recommend this venue.More</t>
   </si>
   <si>
+    <t>Mitchell  R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r334334467-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -795,6 +873,9 @@
     <t>Ms Quin front desk agent is extremely welcoming, polite and helpful when I come to this hotel. I travel to Dallas every week from Houston. She is one of the main reasons I keep coming back to this hotel. She always tells me my points and thanks me for being a Aspire member. This hotel is ways clean and in tip top shape. The breakfast is always fresh and hot when I eat in the mornings.  One of my favorite things here is the snack area. I always take something to the room and Ms Quinn puts it on my bill.  I always get an energy drink in the morning. It really saves time. I am a Aspire member and have earned the majority of my points at Dallas West. Keep up the good work. More</t>
   </si>
   <si>
+    <t>Mark H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r330768746-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -819,6 +900,9 @@
     <t>Although not in an area replete with sit down dining, the hotel was outstanding.  Great rooms (no bath though), very comfortable beds, well sound protected and quite a bit of space.  The hotel also has a very nice indoor pool, indoor hot tub and a decent enough gym.  For the morning, you have a pretty solid warm breakfast available to you.  It has been a long time since I stayed at a Holiday Inn facility and I would give this one a 90/100.More</t>
   </si>
   <si>
+    <t>TerreWheeks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r327019428-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -846,6 +930,9 @@
     <t>My husband and I stayed here twice -- the first time for 3 nights at the beginning of our Texas trip and the second time for 1 night the night before we flew home.Both times we stayed in a king room, which was good sized.  The bathroom was also good sized, and it had a large walk-in shower.  The toilet also had a self-closing lid -- we've never seen that before in a comparable-type hotel.  The rooms were clean both times when we checked in.  The first 3 nights we were on the top floor and never heard anyone.  That last night we were on the 3rd floor and did hear the people above us walking and flushing the toilet.  The beds were comfortable and we slept well.Breakfast is your usual hotel items.  The hotel is conveniently located for easy freeway access but yet we didn't hear the freeway in our rooms.  It's also close to downtown for sightseeing.  There are also numerous dining choices within walking distance, and there is a Walmart across the street.If we're ever in Dallas again, we would stay here.More</t>
   </si>
   <si>
+    <t>Bob A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r326591294-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -870,6 +957,9 @@
     <t>This was the best Holiday Inn Express I have ever stayed in.  The rooms are spacious and very clean. I was amazed by how good the breakfast was, while I was there. I love openness of their lobby.  I will certainly be back to this amazing hotel.More</t>
   </si>
   <si>
+    <t>Gaytz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r162635226-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -897,6 +987,9 @@
     <t>Our family of four stayed here for 5 nights in March 2013. Pros: Staff was very nice, the free breakfast was a nice service to grab something quick on our way out in the morning and for us the hotel was very conveniently located. Cons: bathroom fixtures were all very cheap so they hardy worked (shower head coming out of the wall, etc) and while our room seemed to get cleaned well, the rest of the hotel was not always very tidy. For a newer hotel, this was surprising. For example, there was a dirty papertowel on the floor of the elevator one day and not one of the staff bothered to pick it up all day despite riding up and down a million times. Obviously not a big deal, but it says a lot. Also, the picture of the pool on their website it VERY deceiving. The picture makes it look large and beautiful. It is very small and nothing special at all. And by about 10am, kids have ransacked the place leaving wet towels all over the pool area, chairs and bathroom that's connected. Again, the staff should see this and clean things up. So overall, the staff was very friendly, but the housekeeping and management maybe don't seem to be going out of their way by any means to make sure things are clean and maintained. And despite the location which was very convenient, I don't think...Our family of four stayed here for 5 nights in March 2013. Pros: Staff was very nice, the free breakfast was a nice service to grab something quick on our way out in the morning and for us the hotel was very conveniently located. Cons: bathroom fixtures were all very cheap so they hardy worked (shower head coming out of the wall, etc) and while our room seemed to get cleaned well, the rest of the hotel was not always very tidy. For a newer hotel, this was surprising. For example, there was a dirty papertowel on the floor of the elevator one day and not one of the staff bothered to pick it up all day despite riding up and down a million times. Obviously not a big deal, but it says a lot. Also, the picture of the pool on their website it VERY deceiving. The picture makes it look large and beautiful. It is very small and nothing special at all. And by about 10am, kids have ransacked the place leaving wet towels all over the pool area, chairs and bathroom that's connected. Again, the staff should see this and clean things up. So overall, the staff was very friendly, but the housekeeping and management maybe don't seem to be going out of their way by any means to make sure things are clean and maintained. And despite the location which was very convenient, I don't think we'd stay again. If they can make some relatively minor improvements, that would really help.More</t>
   </si>
   <si>
+    <t>Michael L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r159239880-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1008,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Briana R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r158775851-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -924,6 +1020,9 @@
     <t>April 25, 2013</t>
   </si>
   <si>
+    <t>Douglas H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r152206941-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -949,6 +1048,9 @@
   </si>
   <si>
     <t>This HI still looks brand new.  It is probably the cleanest we've ever stayed in (we stay in ~10 IHG properties per year).  It was also the first that has ever actually had a priority member check in treat (a bag with fruit, water, and snacks).  The gym equipment was nice and clean.  The room was large.  The breakfast was as good as any other IHG property.  All that being said, it was four of the worst nights sleep I have ever gotten (or didn't get as is the case).  People above and around us came in at all hours (2-5am) after being out drinking I suppose.  The walls/floors were thin enough that their noise woke us and we could hear every word of their conversations.  There was also a strange clacking noise that we think was water in the pipes.  It would make five or six loud beats every 10-20 seconds for a while and then go away.  We think it was the pipes as it came from various directions and usually at times when people would be showering (including when people would get in 2-5am).  We were in an end room on the second floor, so maybe it is only that room.  Without the noise I would have given 4 or 5 stars.More</t>
+  </si>
+  <si>
+    <t>hr1487</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r150581474-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
@@ -978,6 +1080,9 @@
 Again, it would have been five stars...As is evidenced by my previous reviews I prefer Holiday Inn Express over most other offerings while traveling on business.  This hotel only fell short in one area: the pool/hot tub area was "out of service."  I cannot begin to express how much I was looking forward to both of those things and how elated I was to see a "Pool/Spa 24Hrs" sign only to have my hopes dashed by the "out of order" sign just below it.  Ah well...The front desk staff was very friendly, check in was expedient, and for the first time in three HIE stays I actually got my Priority Club gift bag.  The hotel itself was clean, bright, and an overall pleasant smell to it (funny, I know, but sadly odd enough that I'd make a remark on it).  Its located right off the highway and is about ten minutes from downtown Dallas with several chain restaurants and a Wal-Mart across the street - extremely convenient!  The rooms were comfortable and had a mini-fridge, micro wave, coffee pot, etc.  Breakfast in the morning was on point as I've come to expect.  One thing that I didn't know they offered was a manager's reception from 1700-1900.  They had assorted beer and munchies in addition to the fresh, hot cookies provided at the front desk.  If more HIE did this it would completely elevate them to the next level!  Again, it would have been five stars if the pool/spa had been functional.More</t>
   </si>
   <si>
+    <t>Traveler16340</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r148226755-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -999,6 +1104,9 @@
     <t>Maybe it's just the hotels in the south, however they always seem to be a pleasure to stay at!  This Holiday Inn Express  screams top notch the minute you step a foot inside of it.  We were greeted by a full professional at the front desk who presented us with little gift baskets of water, crackers and an orange.  As unusual as I found that, I also found it to be very thoughtful of the chain to provide us with the gift.   The rooms were super clean with a mini refrigerator, coffeemaker and a microwave.   The breakfast was very good with a hot breakfast available as well as your typical cold breakfast menu. There really isn't anymore to say other than I would definitely recommend this hotel  as I thought it was a great value.More</t>
   </si>
   <si>
+    <t>JustaSmidgen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r142023765-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1017,6 +1125,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Jeff H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r141799476-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1056,6 +1167,9 @@
     <t>We stayed here for the Cowboy Classic and had a great time. The hotel appeared relatively new and was very clean.  All the staff was great -especially Rudy. Rudy gave us great local suggestions for dinner each night and made sure we had the directions and phone number.  More</t>
   </si>
   <si>
+    <t>ClarkstonTerry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r139358027-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1074,6 +1188,9 @@
     <t>I stayed one night over Labor Day weekend.  The property was new and of course, so was the room.  I found it to be very comfortable.  Everything looked good and worked.  It had easy access off I-20 and had numerous food options at the exit.  For the business traveler, this would also be close enough for easy access to downtown.  Absolutely no complaints.More</t>
   </si>
   <si>
+    <t>Homewardbound12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r119879815-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1092,6 +1209,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>Fayettenam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r118886468-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1107,6 +1227,9 @@
     <t>Headed to Southwest Classic(Arkansas vs TX A&amp;M), stayed one quick night.  Exceeded my expectations.  Everything seems very nice and new.  All ammenities seemed great!  Used the fitness center, was great!  The continental breakfast, was not only large, but very well maintained.  Will stay here again, anytime I am headed to sporting event (Cowboys, Rangers, etc)</t>
   </si>
   <si>
+    <t>LSUGalJones</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r117681755-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1125,6 +1248,9 @@
     <t>My family and I traveled into town for a football game. We had a reservation at another Holiday Inn (Arlington) but they had cancelled our reservation and had no room for us, so 500 miles away from home with nowhere to sleep, we were told this hotel had one room left for the weekend and was the only one within a 30 mile radius, so we decided to take the room. Best decision ever! We arrived here and couldn't have asked for a better location, hotel, or staff experience. Valmarie is great! Staff is very friendly and professional, rooms are clean and good value for the money. I highly recommend this hotel if you need to stay in the Dallas/Arlington area. More</t>
   </si>
   <si>
+    <t>Ted J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r116681338-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1143,6 +1269,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>chkiaar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r116163310-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1158,6 +1287,9 @@
     <t>I enjoy my stay here everytime I'm in town.Valmarie at the desk is the GREATEST.  Really makes you feel welcome and at home.  She is evil though, not only does she seduce you with her beauty...SHE MAKES COOKIES TOO!!!!!Definately WILL return!!!</t>
   </si>
   <si>
+    <t>Simmrouter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r89650861-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1177,6 +1309,9 @@
   </si>
   <si>
     <t>I had the pleasure to stay at the Holiday Inn Express Dallas West recently, and I must say that it was probably the best hotel in the entire Holiday Inn Express chain!I arrived around 6:45 PM in time to enjoy the "Manager's Reception" which included beer, wine and a few appetizers. The upgraded room was very clean and comfortable, and the buffet breakfast was delicious. I also needed to print out some large business documents which was no problem in the well stocked business center next to the main lobby.I would highly recommend this hotel to both business and leisure travelers. There is also a Chili's Restaurant within easy walking distance if you need dinner or a drink.  I plan to stay at this Holiday Inn Express Hotel whenever I have business in either Dallas or Fort Worth as it is conveniently located just off of I-30 which runs between these two major cities in Texas.More</t>
+  </si>
+  <si>
+    <t>Yankton</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d1657223-r81543264-Holiday_Inn_Express_Hotel_Suites_Dallas_West-Dallas_Texas.html</t>
@@ -1702,43 +1837,47 @@
       <c r="A2" t="n">
         <v>60484</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>72032</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -1756,50 +1895,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60484</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>155348</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1819,50 +1962,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>60484</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>155349</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1876,50 +2023,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>60484</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>155350</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1933,50 +2084,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>60484</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>155351</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1994,50 +2149,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>60484</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2049,56 +2208,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="X7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>60484</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>92634</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2112,41 +2275,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>60484</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>155352</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
@@ -2163,56 +2330,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="X9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>60484</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>155353</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2224,56 +2395,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="X10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>60484</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>155354</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2285,56 +2460,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="X11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>60484</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>155355</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2346,56 +2525,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="X12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>60484</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>3554</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2411,56 +2594,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="X13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>60484</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>88790</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2478,56 +2665,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="X14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>60484</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>41638</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2539,56 +2730,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="X15" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>60484</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>155351</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2600,47 +2795,51 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="X16" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>60484</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>155356</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
@@ -2657,56 +2856,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="X17" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>60484</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>155357</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="J18" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="O18" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2718,56 +2921,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="X18" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>60484</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>155358</v>
+      </c>
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="O19" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -2785,56 +2992,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="X19" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="Y19" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>60484</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>155359</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="J20" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2846,47 +3057,51 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="X20" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="Y20" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>60484</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>10827</v>
+      </c>
+      <c r="C21" t="s">
+        <v>208</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
@@ -2903,56 +3118,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="X21" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>60484</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>39943</v>
+      </c>
+      <c r="C22" t="s">
+        <v>217</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2968,56 +3187,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="X22" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="Y22" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>60484</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>155360</v>
+      </c>
+      <c r="C23" t="s">
+        <v>227</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="J23" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="K23" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="O23" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -3033,56 +3256,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="X23" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="Y23" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>60484</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>155361</v>
+      </c>
+      <c r="C24" t="s">
+        <v>237</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="J24" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3096,50 +3323,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>60484</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>155362</v>
+      </c>
+      <c r="C25" t="s">
+        <v>243</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="J25" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="K25" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="L25" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3157,56 +3388,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="X25" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="Y25" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>60484</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>9509</v>
+      </c>
+      <c r="C26" t="s">
+        <v>253</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="J26" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="K26" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="O26" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3224,47 +3459,51 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="X26" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="Y26" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>60484</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>155363</v>
+      </c>
+      <c r="C27" t="s">
+        <v>262</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="J27" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="K27" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
@@ -3281,56 +3520,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="X27" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="Y27" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>60484</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>155364</v>
+      </c>
+      <c r="C28" t="s">
+        <v>271</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="J28" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="K28" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="L28" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3342,56 +3585,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="X28" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="Y28" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>60484</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>2915</v>
+      </c>
+      <c r="C29" t="s">
+        <v>281</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="J29" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="K29" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="L29" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -3409,56 +3656,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="X29" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="Y29" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>60484</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>155365</v>
+      </c>
+      <c r="C30" t="s">
+        <v>290</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="J30" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="K30" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="L30" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="O30" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3474,56 +3725,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="X30" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="Y30" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>60484</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>27883</v>
+      </c>
+      <c r="C31" t="s">
+        <v>300</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="J31" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="K31" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="L31" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3539,56 +3794,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="X31" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="Y31" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>60484</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>155366</v>
+      </c>
+      <c r="C32" t="s">
+        <v>309</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="J32" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="K32" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="L32" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3610,56 +3869,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="X32" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="Y32" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>60484</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>876</v>
+      </c>
+      <c r="C33" t="s">
+        <v>319</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="J33" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="K33" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="L33" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3683,35 +3946,39 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>60484</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>155367</v>
+      </c>
+      <c r="C34" t="s">
+        <v>326</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="J34" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s"/>
@@ -3727,51 +3994,52 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>60484</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>71472</v>
+      </c>
+      <c r="C35" t="s">
+        <v>330</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="J35" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="K35" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="L35" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="O35" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3793,56 +4061,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="X35" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="Y35" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>60484</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>155368</v>
+      </c>
+      <c r="C36" t="s">
+        <v>340</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="J36" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="K36" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="L36" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3866,50 +4138,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>60484</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>155369</v>
+      </c>
+      <c r="C37" t="s">
+        <v>348</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="J37" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="K37" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="L37" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3933,50 +4209,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>60484</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>155370</v>
+      </c>
+      <c r="C38" t="s">
+        <v>356</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="J38" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="K38" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="L38" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="O38" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4000,41 +4280,45 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>60484</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>538</v>
+      </c>
+      <c r="C39" t="s">
+        <v>363</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="J39" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="K39" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="L39" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
@@ -4063,7 +4347,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40">
@@ -4076,28 +4360,28 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="J40" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="K40" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="L40" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
@@ -4124,56 +4408,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="X40" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="Y40" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>60484</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>92105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>377</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="J41" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="K41" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="L41" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="O41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4195,56 +4483,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="X41" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="Y41" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>60484</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>97074</v>
+      </c>
+      <c r="C42" t="s">
+        <v>384</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="J42" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="K42" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="L42" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="O42" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4268,50 +4560,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>60484</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>17204</v>
+      </c>
+      <c r="C43" t="s">
+        <v>391</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="J43" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="K43" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="L43" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4335,41 +4631,45 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>60484</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>155371</v>
+      </c>
+      <c r="C44" t="s">
+        <v>397</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="J44" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="K44" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="L44" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
@@ -4398,50 +4698,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>60484</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>155372</v>
+      </c>
+      <c r="C45" t="s">
+        <v>404</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="J45" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="K45" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="L45" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4461,50 +4765,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>60484</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>155373</v>
+      </c>
+      <c r="C46" t="s">
+        <v>411</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="J46" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="K46" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="L46" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4524,50 +4832,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>60484</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>67810</v>
+      </c>
+      <c r="C47" t="s">
+        <v>417</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="J47" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="K47" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="L47" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4591,50 +4903,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>60484</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>155374</v>
+      </c>
+      <c r="C48" t="s">
+        <v>425</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="J48" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="K48" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="L48" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="O48" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4658,7 +4974,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
